--- a/doc/传感器数据协议帧.xlsx
+++ b/doc/传感器数据协议帧.xlsx
@@ -220,7 +220,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明:
+    <t>说明:目前仅支持定长
 1.绿色表示固定存在的域
 2.棕色表示可变域
 3.标记表示棕色域中的包含的内容,
@@ -600,6 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -609,10 +610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -623,6 +620,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,7 +941,7 @@
   <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="N19" sqref="N19:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -968,19 +968,19 @@
       <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="12" t="s">
@@ -1019,7 +1019,7 @@
       <c r="N3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1120,19 +1120,19 @@
       <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="12" t="s">
@@ -1253,8 +1253,8 @@
         <v>4</v>
       </c>
       <c r="O10" s="24">
-        <f>SUM(F10:M10)</f>
-        <v>44</v>
+        <f>SUM(G10:N10)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="14.25" thickBot="1">
@@ -1314,17 +1314,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="12" t="s">
@@ -1429,8 +1429,8 @@
         <v>4</v>
       </c>
       <c r="M16" s="24">
-        <f>SUM(F16:K16)</f>
-        <v>20</v>
+        <f>SUM(G16:L16)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="14.25" thickBot="1">
@@ -1480,25 +1480,25 @@
     </row>
     <row r="19" spans="2:20" ht="14.25" thickTop="1">
       <c r="D19" s="1"/>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="N19" s="31" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="N19" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32"/>
     </row>
     <row r="20" spans="2:20">
       <c r="D20" s="1"/>
@@ -1526,12 +1526,12 @@
       <c r="L20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="35"/>
     </row>
     <row r="21" spans="2:20">
@@ -1558,12 +1558,12 @@
         <v>33</v>
       </c>
       <c r="L21" s="23"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
       <c r="T21" s="35"/>
     </row>
     <row r="22" spans="2:20">
@@ -1590,15 +1590,15 @@
         <v>4</v>
       </c>
       <c r="L22" s="24">
-        <f>SUM(F22:J22)</f>
-        <v>16</v>
-      </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+        <f>SUM(G22:K22)</f>
+        <v>18</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="35"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickBot="1">
@@ -1625,42 +1625,42 @@
         <v>45</v>
       </c>
       <c r="L23" s="25"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
       <c r="T23" s="35"/>
     </row>
     <row r="24" spans="2:20" ht="14.25" thickTop="1">
       <c r="D24" s="1"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="35"/>
     </row>
     <row r="25" spans="2:20">
       <c r="D25" s="1"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
       <c r="T25" s="35"/>
     </row>
     <row r="26" spans="2:20">
       <c r="D26" s="1"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
       <c r="T26" s="35"/>
     </row>
     <row r="27" spans="2:20">

--- a/doc/传感器数据协议帧.xlsx
+++ b/doc/传感器数据协议帧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
 4.每帧的长度为4Bytes的倍数，便于CRC32算法处理
 5.标记中相应bit为零,则无数据,棕色域后面的域前移
 6.可变域中子域内容顺序由数据手册中低地址到高地址存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加计+陀螺仪+磁力计(当前实现)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -547,11 +557,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -601,6 +642,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -609,33 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T27"/>
+  <dimension ref="B1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:T27"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -960,29 +1014,38 @@
     <col min="15" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:15" ht="14.25" thickTop="1">
+    <row r="1" spans="2:23" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:23" ht="14.25" thickTop="1">
       <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="Q2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="33"/>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1022,8 +1085,15 @@
       <c r="O3" s="26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="36"/>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1063,8 +1133,15 @@
       <c r="O4" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" thickBot="1">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="36"/>
+    </row>
+    <row r="5" spans="2:23" ht="14.25" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1104,78 +1181,102 @@
       <c r="O5" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="15" thickTop="1" thickBot="1">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+    </row>
+    <row r="6" spans="2:23" ht="15" thickTop="1" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="14.25" thickTop="1">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="36"/>
+    </row>
+    <row r="7" spans="2:23" ht="15" thickTop="1" thickBot="1">
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="E7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
+    </row>
+    <row r="8" spans="2:23" ht="14.25" thickTop="1">
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="N8" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
@@ -1188,14 +1289,14 @@
       <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
+      <c r="I9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>38</v>
@@ -1206,15 +1307,19 @@
       <c r="L9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="N9" s="23"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
@@ -1228,14 +1333,14 @@
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
-        <v>4</v>
+      <c r="G10" s="18">
+        <v>2</v>
       </c>
       <c r="H10" s="16">
         <v>2</v>
       </c>
-      <c r="I10" s="18">
-        <v>16</v>
+      <c r="I10" s="16">
+        <v>4</v>
       </c>
       <c r="J10" s="18">
         <v>6</v>
@@ -1246,18 +1351,22 @@
       <c r="L10" s="18">
         <v>6</v>
       </c>
-      <c r="M10" s="18">
-        <v>2</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M10" s="16">
         <v>4</v>
       </c>
-      <c r="O10" s="24">
-        <f>SUM(G10:N10)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="14.25" thickBot="1">
+      <c r="N10" s="24">
+        <f>SUM(F10:M10)</f>
+        <v>32</v>
+      </c>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
+    </row>
+    <row r="11" spans="2:23" ht="14.25" thickBot="1">
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1290,14 +1399,11 @@
         <v>45</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" thickTop="1" thickBot="1">
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="2:23" ht="15" thickTop="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1412,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="14.25" thickTop="1">
+    <row r="13" spans="2:23" ht="14.25" thickTop="1">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1314,19 +1420,21 @@
         <v>21</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="E13" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1346,23 +1454,29 @@
       <c r="H14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>23</v>
+      <c r="I14" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="J14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="N14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="O14" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:23">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
@@ -1383,20 +1497,26 @@
         <v>37</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -1417,23 +1537,29 @@
         <v>2</v>
       </c>
       <c r="I16" s="18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J16" s="18">
         <v>6</v>
       </c>
       <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="16">
+        <v>6</v>
+      </c>
+      <c r="L16" s="18">
+        <v>6</v>
+      </c>
+      <c r="M16" s="18">
+        <v>2</v>
+      </c>
+      <c r="N16" s="16">
         <v>4</v>
       </c>
-      <c r="M16" s="24">
-        <f>SUM(G16:L16)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="14.25" thickBot="1">
+      <c r="O16" s="24">
+        <f>SUM(G16:N16)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="14.25" thickBot="1">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1465,11 +1591,15 @@
       <c r="L17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="15" thickTop="1" thickBot="1">
+      <c r="M17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickTop="1" thickBot="1">
       <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
@@ -1478,29 +1608,21 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:20" ht="14.25" thickTop="1">
+    <row r="19" spans="2:15" ht="14.25" thickTop="1">
       <c r="D19" s="1"/>
-      <c r="E19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="N19" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="32"/>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="E19" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
         <v>1</v>
@@ -1515,26 +1637,22 @@
         <v>28</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="M20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-    </row>
-    <row r="21" spans="2:20">
+    </row>
+    <row r="21" spans="2:15">
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
         <v>2</v>
@@ -1549,24 +1667,20 @@
         <v>37</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
         <v>3</v>
@@ -1584,24 +1698,20 @@
         <v>6</v>
       </c>
       <c r="J22" s="18">
-        <v>2</v>
-      </c>
-      <c r="K22" s="16">
+        <v>6</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <v>4</v>
       </c>
-      <c r="L22" s="24">
-        <f>SUM(G22:K22)</f>
-        <v>18</v>
-      </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-    </row>
-    <row r="23" spans="2:20" ht="14.25" thickBot="1">
+      <c r="M22" s="24">
+        <f>SUM(G22:L22)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="14.25" thickBot="1">
       <c r="D23" s="1"/>
       <c r="E23" s="20" t="s">
         <v>44</v>
@@ -1624,61 +1734,140 @@
       <c r="K23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-    </row>
-    <row r="24" spans="2:20" ht="14.25" thickTop="1">
+      <c r="L23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15" thickTop="1" thickBot="1">
       <c r="D24" s="1"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="35"/>
-    </row>
-    <row r="25" spans="2:20">
+    </row>
+    <row r="25" spans="2:15" ht="14.25" thickTop="1">
       <c r="D25" s="1"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35"/>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="E25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+    </row>
+    <row r="26" spans="2:15">
       <c r="D26" s="1"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="35"/>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-    </row>
+      <c r="E26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2</v>
+      </c>
+      <c r="G28" s="16">
+        <v>4</v>
+      </c>
+      <c r="H28" s="16">
+        <v>2</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6</v>
+      </c>
+      <c r="J28" s="18">
+        <v>2</v>
+      </c>
+      <c r="K28" s="16">
+        <v>4</v>
+      </c>
+      <c r="L28" s="24">
+        <f>SUM(G28:K28)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="14.25" thickBot="1">
+      <c r="E29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="21">
+        <v>42</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="2:15" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E19:L19"/>
+  <mergeCells count="6">
+    <mergeCell ref="Q2:W10"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E25:L25"/>
     <mergeCell ref="E2:O2"/>
-    <mergeCell ref="N19:T27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
